--- a/natmiOut/OldD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.83199603355718</v>
+        <v>7.005616666666666</v>
       </c>
       <c r="H2">
-        <v>4.83199603355718</v>
+        <v>21.01685</v>
       </c>
       <c r="I2">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819215</v>
       </c>
       <c r="J2">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.5005493800982</v>
+        <v>58.88086666666666</v>
       </c>
       <c r="N2">
-        <v>37.5005493800982</v>
+        <v>176.6426</v>
       </c>
       <c r="O2">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293818</v>
       </c>
       <c r="P2">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293819</v>
       </c>
       <c r="Q2">
-        <v>181.2025058608497</v>
+        <v>412.4967808677777</v>
       </c>
       <c r="R2">
-        <v>181.2025058608497</v>
+        <v>3712.471027809999</v>
       </c>
       <c r="S2">
-        <v>0.05009460224329623</v>
+        <v>0.08991650679843667</v>
       </c>
       <c r="T2">
-        <v>0.05009460224329623</v>
+        <v>0.0899165067984367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.83199603355718</v>
+        <v>7.005616666666666</v>
       </c>
       <c r="H3">
-        <v>4.83199603355718</v>
+        <v>21.01685</v>
       </c>
       <c r="I3">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819215</v>
       </c>
       <c r="J3">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.733525094454</v>
+        <v>110.7417803333333</v>
       </c>
       <c r="N3">
-        <v>110.733525094454</v>
+        <v>332.225341</v>
       </c>
       <c r="O3">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448766</v>
       </c>
       <c r="P3">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448767</v>
       </c>
       <c r="Q3">
-        <v>535.0639540382062</v>
+        <v>775.8144619995388</v>
       </c>
       <c r="R3">
-        <v>535.0639540382062</v>
+        <v>6982.33015799585</v>
       </c>
       <c r="S3">
-        <v>0.1479218834470901</v>
+        <v>0.1691128987720937</v>
       </c>
       <c r="T3">
-        <v>0.1479218834470901</v>
+        <v>0.1691128987720938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.83199603355718</v>
+        <v>7.005616666666666</v>
       </c>
       <c r="H4">
-        <v>4.83199603355718</v>
+        <v>21.01685</v>
       </c>
       <c r="I4">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819215</v>
       </c>
       <c r="J4">
-        <v>0.2503857175389487</v>
+        <v>0.3190354092819216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.2033248491884</v>
+        <v>39.29429233333334</v>
       </c>
       <c r="N4">
-        <v>39.2033248491884</v>
+        <v>117.882877</v>
       </c>
       <c r="O4">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="P4">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="Q4">
-        <v>189.430310173532</v>
+        <v>275.2807492752722</v>
       </c>
       <c r="R4">
-        <v>189.430310173532</v>
+        <v>2477.52674347745</v>
       </c>
       <c r="S4">
-        <v>0.05236923184856236</v>
+        <v>0.06000600371139112</v>
       </c>
       <c r="T4">
-        <v>0.05236923184856236</v>
+        <v>0.06000600371139113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6140958241564</v>
+        <v>14.03763466666667</v>
       </c>
       <c r="H5">
-        <v>13.6140958241564</v>
+        <v>42.112904</v>
       </c>
       <c r="I5">
-        <v>0.7054590127769541</v>
+        <v>0.6392731338754509</v>
       </c>
       <c r="J5">
-        <v>0.7054590127769541</v>
+        <v>0.639273133875451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.5005493800982</v>
+        <v>58.88086666666666</v>
       </c>
       <c r="N5">
-        <v>37.5005493800982</v>
+        <v>176.6426</v>
       </c>
       <c r="O5">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293818</v>
       </c>
       <c r="P5">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293819</v>
       </c>
       <c r="Q5">
-        <v>510.5360727191658</v>
+        <v>826.5480951233777</v>
       </c>
       <c r="R5">
-        <v>510.5360727191658</v>
+        <v>7438.932856110399</v>
       </c>
       <c r="S5">
-        <v>0.1411409923511819</v>
+        <v>0.1801718725126701</v>
       </c>
       <c r="T5">
-        <v>0.1411409923511819</v>
+        <v>0.1801718725126702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.6140958241564</v>
+        <v>14.03763466666667</v>
       </c>
       <c r="H6">
-        <v>13.6140958241564</v>
+        <v>42.112904</v>
       </c>
       <c r="I6">
-        <v>0.7054590127769541</v>
+        <v>0.6392731338754509</v>
       </c>
       <c r="J6">
-        <v>0.7054590127769541</v>
+        <v>0.639273133875451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.733525094454</v>
+        <v>110.7417803333333</v>
       </c>
       <c r="N6">
-        <v>110.733525094454</v>
+        <v>332.225341</v>
       </c>
       <c r="O6">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448766</v>
       </c>
       <c r="P6">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448767</v>
       </c>
       <c r="Q6">
-        <v>1507.536821582524</v>
+        <v>1554.552654655585</v>
       </c>
       <c r="R6">
-        <v>1507.536821582524</v>
+        <v>13990.97389190026</v>
       </c>
       <c r="S6">
-        <v>0.4167682841113303</v>
+        <v>0.3388631156025237</v>
       </c>
       <c r="T6">
-        <v>0.4167682841113303</v>
+        <v>0.3388631156025239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6140958241564</v>
+        <v>14.03763466666667</v>
       </c>
       <c r="H7">
-        <v>13.6140958241564</v>
+        <v>42.112904</v>
       </c>
       <c r="I7">
-        <v>0.7054590127769541</v>
+        <v>0.6392731338754509</v>
       </c>
       <c r="J7">
-        <v>0.7054590127769541</v>
+        <v>0.639273133875451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.2033248491884</v>
+        <v>39.29429233333334</v>
       </c>
       <c r="N7">
-        <v>39.2033248491884</v>
+        <v>117.882877</v>
       </c>
       <c r="O7">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="P7">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="Q7">
-        <v>533.7178211223826</v>
+        <v>551.5989202605343</v>
       </c>
       <c r="R7">
-        <v>533.7178211223826</v>
+        <v>4964.390282344808</v>
       </c>
       <c r="S7">
-        <v>0.147549736314442</v>
+        <v>0.120238145760257</v>
       </c>
       <c r="T7">
-        <v>0.147549736314442</v>
+        <v>0.1202381457602571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8521176450131011</v>
+        <v>0.915492</v>
       </c>
       <c r="H8">
-        <v>0.8521176450131011</v>
+        <v>2.746476</v>
       </c>
       <c r="I8">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262745</v>
       </c>
       <c r="J8">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262746</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.5005493800982</v>
+        <v>58.88086666666666</v>
       </c>
       <c r="N8">
-        <v>37.5005493800982</v>
+        <v>176.6426</v>
       </c>
       <c r="O8">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293818</v>
       </c>
       <c r="P8">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293819</v>
       </c>
       <c r="Q8">
-        <v>31.95487982446678</v>
+        <v>53.90496238639999</v>
       </c>
       <c r="R8">
-        <v>31.95487982446678</v>
+        <v>485.1446614775999</v>
       </c>
       <c r="S8">
-        <v>0.008834132767282302</v>
+        <v>0.01175026361827501</v>
       </c>
       <c r="T8">
-        <v>0.008834132767282302</v>
+        <v>0.01175026361827501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8521176450131011</v>
+        <v>0.915492</v>
       </c>
       <c r="H9">
-        <v>0.8521176450131011</v>
+        <v>2.746476</v>
       </c>
       <c r="I9">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262745</v>
       </c>
       <c r="J9">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262746</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.733525094454</v>
+        <v>110.7417803333333</v>
       </c>
       <c r="N9">
-        <v>110.733525094454</v>
+        <v>332.225341</v>
       </c>
       <c r="O9">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448766</v>
       </c>
       <c r="P9">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448767</v>
       </c>
       <c r="Q9">
-        <v>94.35799062748526</v>
+        <v>101.383213960924</v>
       </c>
       <c r="R9">
-        <v>94.35799062748526</v>
+        <v>912.448925648316</v>
       </c>
       <c r="S9">
-        <v>0.02608587550433991</v>
+        <v>0.0220996256702591</v>
       </c>
       <c r="T9">
-        <v>0.02608587550433991</v>
+        <v>0.0220996256702591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8521176450131011</v>
+        <v>0.915492</v>
       </c>
       <c r="H10">
-        <v>0.8521176450131011</v>
+        <v>2.746476</v>
       </c>
       <c r="I10">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262745</v>
       </c>
       <c r="J10">
-        <v>0.04415526968409704</v>
+        <v>0.04169145684262746</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.2033248491884</v>
+        <v>39.29429233333334</v>
       </c>
       <c r="N10">
-        <v>39.2033248491884</v>
+        <v>117.882877</v>
       </c>
       <c r="O10">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="P10">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="Q10">
-        <v>33.405844847174</v>
+        <v>35.973610276828</v>
       </c>
       <c r="R10">
-        <v>33.405844847174</v>
+        <v>323.762492491452</v>
       </c>
       <c r="S10">
-        <v>0.009235261412474827</v>
+        <v>0.007841567554093341</v>
       </c>
       <c r="T10">
-        <v>0.009235261412474827</v>
+        <v>0.007841567554093341</v>
       </c>
     </row>
   </sheetData>
